--- a/biology/Botanique/Anacyclus_tinctorius/Anacyclus_tinctorius.xlsx
+++ b/biology/Botanique/Anacyclus_tinctorius/Anacyclus_tinctorius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cota tinctoria, en français Anthémis des teinturiers, Camomille jaune, Cotta des teinturiers ou Œil de bœuf[2], est une espèce de plante à fleurs de la famille des Astéracées. Cette espèce indigène dans plusieurs pays d'Europe et en Asie de l'Ouest, fleurit en été à basse altitude dans la plupart des pays d'Europe occidentale, à l'exception des régions méditerranéennes. Elle est souvent trouvée dans les jardins comme adventice.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cota tinctoria, en français Anthémis des teinturiers, Camomille jaune, Cotta des teinturiers ou Œil de bœuf, est une espèce de plante à fleurs de la famille des Astéracées. Cette espèce indigène dans plusieurs pays d'Europe et en Asie de l'Ouest, fleurit en été à basse altitude dans la plupart des pays d'Europe occidentale, à l'exception des régions méditerranéennes. Elle est souvent trouvée dans les jardins comme adventice.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace de taille moyenne, à tige souvent ramifiée, à feuilles bipennatilobées vertes à revers blanchâtre et velu. Les capitules sont jaune doré. Comme pour tous les anthémis, les fleurons périphériques, ligulés, sont femelles, tandis que les fleurons du disque sont hermaphrodites.
 </t>
@@ -542,7 +556,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Type d'inflorescence : corymbe de capitules avec des réceptacles floraux munis de paillettes
@@ -584,9 +600,11 @@
           <t>Liste des taxons de rang inférieur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Liste des sous-espèces selon GBIF       (14 mai 2021)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces selon GBIF       (14 mai 2021) :
 Cota tinctoria subsp. australis (R.Fern.) Oberpr. &amp; Greuter
 Cota tinctoria subsp. euxina (Boiss.) Oberpr. &amp; Greuter
 Cota tinctoria subsp. fussii (Griseb. &amp; Schenk) Oberpr. &amp; Greuter
@@ -622,20 +640,22 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Anacyclus tinctorius (L.) Samp.[4]
-Anthemis debilis Fed., 1961[1]
-Anthemis tinctoria subsp. australis R.Fern., 1975[1]
-Anthemis tinctoria var. australis (R.Fern.) Govaerts, 1995[1]
-Anthemis tinctoria L., 1753[1],[4]
-Chamaemelum tinctorium (L.) All., 1785[1]
-Chamaemelum tinctorium (L.) Schreb.[4]
-Cota tinctoria (L.) J.Gay ex Guss., 1844 subsp. tinctoria[1]
-Cota tinctoria subsp. australis (R.Fern.) Oberpr. &amp; Greuter, 2003[1]
-Cota tinctoria var. discoidea (All.) Özbek &amp; Vural, 2012[1]
-Matricaria tinctoria (L.) Baill., 1882[1]
+Anacyclus tinctorius (L.) Samp.
+Anthemis debilis Fed., 1961
+Anthemis tinctoria subsp. australis R.Fern., 1975
+Anthemis tinctoria var. australis (R.Fern.) Govaerts, 1995
+Anthemis tinctoria L., 1753,
+Chamaemelum tinctorium (L.) All., 1785
+Chamaemelum tinctorium (L.) Schreb.
+Cota tinctoria (L.) J.Gay ex Guss., 1844 subsp. tinctoria
+Cota tinctoria subsp. australis (R.Fern.) Oberpr. &amp; Greuter, 2003
+Cota tinctoria var. discoidea (All.) Özbek &amp; Vural, 2012
+Matricaria tinctoria (L.) Baill., 1882
 </t>
         </is>
       </c>
@@ -664,7 +684,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">On extrait de cette plante une teinture jaune, ce qui explique son nom d'espèce.
 </t>
